--- a/pnas_2212794120_S89_MEAN.xlsx
+++ b/pnas_2212794120_S89_MEAN.xlsx
@@ -717,10 +717,10 @@
         <v>-0.08</v>
       </c>
       <c r="D2">
-        <v>-0.09</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="E2">
-        <v>-0.07000000000000001</v>
+        <v>-0.065</v>
       </c>
       <c r="F2">
         <v>-0.06</v>
@@ -741,19 +741,19 @@
         <v>-0.11</v>
       </c>
       <c r="L2">
-        <v>-0.08</v>
+        <v>-0.07500000000000001</v>
       </c>
       <c r="M2">
-        <v>-0.06</v>
+        <v>-0.055</v>
       </c>
       <c r="N2">
-        <v>-0.09</v>
+        <v>-0.09000000000000001</v>
       </c>
       <c r="O2">
         <v>-0.06</v>
       </c>
       <c r="P2">
-        <v>-0.07000000000000001</v>
+        <v>-0.065</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -761,25 +761,25 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>-0.14</v>
+        <v>-0.145</v>
       </c>
       <c r="C3">
-        <v>-0.12</v>
+        <v>-0.115</v>
       </c>
       <c r="D3">
         <v>-0.15</v>
       </c>
       <c r="E3">
-        <v>-0.12</v>
+        <v>-0.125</v>
       </c>
       <c r="F3">
-        <v>-0.12</v>
+        <v>-0.125</v>
       </c>
       <c r="G3">
-        <v>-0.16</v>
+        <v>-0.165</v>
       </c>
       <c r="H3">
-        <v>-0.14</v>
+        <v>-0.135</v>
       </c>
       <c r="I3">
         <v>-0.13</v>
@@ -803,7 +803,7 @@
         <v>-0.06</v>
       </c>
       <c r="P3">
-        <v>-0.12</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -811,19 +811,19 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>-0.07000000000000001</v>
+        <v>-0.065</v>
       </c>
       <c r="C4">
         <v>-0.09</v>
       </c>
       <c r="D4">
-        <v>-0.12</v>
+        <v>-0.125</v>
       </c>
       <c r="E4">
         <v>-0.07000000000000001</v>
       </c>
       <c r="F4">
-        <v>-0.07000000000000001</v>
+        <v>-0.075</v>
       </c>
       <c r="G4">
         <v>-0.09</v>
@@ -832,13 +832,13 @@
         <v>-0.08</v>
       </c>
       <c r="I4">
-        <v>-0.07000000000000001</v>
+        <v>-0.065</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>-0.06</v>
+        <v>-0.05500000000000001</v>
       </c>
       <c r="L4">
         <v>0.03</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="O4">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="P4">
         <v>-0.06</v>
@@ -861,22 +861,22 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>-0.16</v>
+        <v>-0.165</v>
       </c>
       <c r="C5">
-        <v>-0.1</v>
+        <v>-0.095</v>
       </c>
       <c r="D5">
-        <v>-0.12</v>
+        <v>-0.125</v>
       </c>
       <c r="E5">
         <v>-0.08</v>
       </c>
       <c r="F5">
-        <v>-0.07000000000000001</v>
+        <v>-0.06999999999999999</v>
       </c>
       <c r="G5">
-        <v>-0.1</v>
+        <v>-0.095</v>
       </c>
       <c r="H5">
         <v>-0.04</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-0.12</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -911,25 +911,25 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>-0.17</v>
+        <v>-0.175</v>
       </c>
       <c r="C6">
-        <v>-0.14</v>
+        <v>-0.135</v>
       </c>
       <c r="D6">
         <v>-0.16</v>
       </c>
       <c r="E6">
-        <v>-0.12</v>
+        <v>-0.115</v>
       </c>
       <c r="F6">
-        <v>-0.1</v>
+        <v>-0.095</v>
       </c>
       <c r="G6">
-        <v>-0.07000000000000001</v>
+        <v>-0.065</v>
       </c>
       <c r="H6">
-        <v>-0.12</v>
+        <v>-0.125</v>
       </c>
       <c r="I6">
         <v>-0.19</v>
@@ -950,10 +950,10 @@
         <v>-0.18</v>
       </c>
       <c r="O6">
-        <v>-0.11</v>
+        <v>-0.105</v>
       </c>
       <c r="P6">
-        <v>-0.15</v>
+        <v>-0.145</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -961,7 +961,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>-0.07000000000000001</v>
+        <v>-0.075</v>
       </c>
       <c r="C7">
         <v>-0.04</v>
@@ -970,10 +970,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="E7">
-        <v>-0.03</v>
+        <v>-0.025</v>
       </c>
       <c r="F7">
-        <v>-0.01</v>
+        <v>-0.009999999999999998</v>
       </c>
       <c r="G7">
         <v>0.07000000000000001</v>
@@ -988,22 +988,22 @@
         <v>-0.09</v>
       </c>
       <c r="K7">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="L7">
         <v>-0.12</v>
       </c>
       <c r="M7">
-        <v>-0.12</v>
+        <v>-0.125</v>
       </c>
       <c r="N7">
-        <v>-0.15</v>
+        <v>-0.145</v>
       </c>
       <c r="O7">
-        <v>-0.07000000000000001</v>
+        <v>-0.075</v>
       </c>
       <c r="P7">
-        <v>-0.07000000000000001</v>
+        <v>-0.075</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1014,13 +1014,13 @@
         <v>-0.2</v>
       </c>
       <c r="C8">
-        <v>-0.17</v>
+        <v>-0.175</v>
       </c>
       <c r="D8">
         <v>-0.26</v>
       </c>
       <c r="E8">
-        <v>-0.08</v>
+        <v>-0.08499999999999999</v>
       </c>
       <c r="F8">
         <v>-0.11</v>
@@ -1032,7 +1032,7 @@
         <v>-0.11</v>
       </c>
       <c r="I8">
-        <v>-0.05</v>
+        <v>-0.05499999999999999</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.23</v>
+        <v>-0.235</v>
       </c>
       <c r="M8">
         <v>-0.2</v>
@@ -1061,7 +1061,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>-0.29</v>
+        <v>-0.285</v>
       </c>
       <c r="C9">
         <v>-0.08</v>
@@ -1070,10 +1070,10 @@
         <v>-0.05</v>
       </c>
       <c r="E9">
-        <v>-0.09</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="F9">
-        <v>-0.07000000000000001</v>
+        <v>-0.075</v>
       </c>
       <c r="G9">
         <v>-0.05</v>
@@ -1085,13 +1085,13 @@
         <v>-0.11</v>
       </c>
       <c r="J9">
-        <v>-0.04</v>
+        <v>-0.045</v>
       </c>
       <c r="K9">
         <v>-0.17</v>
       </c>
       <c r="L9">
-        <v>-0.23</v>
+        <v>-0.225</v>
       </c>
       <c r="M9">
         <v>-0.25</v>
@@ -1103,7 +1103,7 @@
         <v>-0.18</v>
       </c>
       <c r="P9">
-        <v>-0.14</v>
+        <v>-0.145</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1123,16 +1123,16 @@
         <v>-0.18</v>
       </c>
       <c r="F10">
-        <v>-0.12</v>
+        <v>-0.125</v>
       </c>
       <c r="G10">
         <v>-0.23</v>
       </c>
       <c r="H10">
-        <v>-0.08</v>
+        <v>-0.07500000000000001</v>
       </c>
       <c r="I10">
-        <v>-0.26</v>
+        <v>-0.255</v>
       </c>
       <c r="J10">
         <v>-0.11</v>
@@ -1141,19 +1141,19 @@
         <v>-0.14</v>
       </c>
       <c r="L10">
-        <v>-0.21</v>
+        <v>-0.215</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-0.21</v>
+        <v>-0.215</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>-0.18</v>
+        <v>-0.185</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1161,34 +1161,34 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="D11">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="E11">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="F11">
         <v>0.12</v>
       </c>
       <c r="G11">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H11">
         <v>0.13</v>
       </c>
       <c r="I11">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="K11">
-        <v>0.08</v>
+        <v>0.08499999999999999</v>
       </c>
       <c r="L11">
         <v>0.21</v>
@@ -1200,7 +1200,7 @@
         <v>0.22</v>
       </c>
       <c r="O11">
-        <v>0.21</v>
+        <v>0.205</v>
       </c>
       <c r="P11">
         <v>0.15</v>
@@ -1211,7 +1211,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>0.08</v>
+        <v>0.08499999999999999</v>
       </c>
       <c r="C12">
         <v>0.13</v>
@@ -1235,16 +1235,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="K12">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="L12">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="M12">
-        <v>-0.07000000000000001</v>
+        <v>-0.065</v>
       </c>
       <c r="N12">
         <v>0.16</v>
@@ -1264,7 +1264,7 @@
         <v>0.23</v>
       </c>
       <c r="C13">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="D13">
         <v>0.18</v>
@@ -1273,28 +1273,28 @@
         <v>0.1</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="G13">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H13">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="I13">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="J13">
-        <v>0.09</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="K13">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="L13">
-        <v>0.28</v>
+        <v>0.285</v>
       </c>
       <c r="M13">
-        <v>0.38</v>
+        <v>0.375</v>
       </c>
       <c r="N13">
         <v>0.3</v>
@@ -1317,28 +1317,28 @@
         <v>0.02</v>
       </c>
       <c r="D14">
-        <v>-0.04</v>
+        <v>-0.035</v>
       </c>
       <c r="E14">
         <v>0.04</v>
       </c>
       <c r="F14">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G14">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H14">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="I14">
-        <v>0.01</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="J14">
         <v>0.01</v>
       </c>
       <c r="K14">
-        <v>0.01</v>
+        <v>0.005000000000000001</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>-0.03</v>
       </c>
       <c r="N14">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="O14">
-        <v>-0</v>
+        <v>-0.004999999999999998</v>
       </c>
       <c r="P14">
-        <v>0.01</v>
+        <v>0.009999999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1361,10 +1361,10 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="C15">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="D15">
         <v>0.01</v>
@@ -1373,34 +1373,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="F15">
-        <v>0.05</v>
+        <v>0.04500000000000001</v>
       </c>
       <c r="G15">
         <v>0.08</v>
       </c>
       <c r="H15">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="I15">
         <v>0.12</v>
       </c>
       <c r="J15">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="K15">
         <v>0.14</v>
       </c>
       <c r="L15">
-        <v>0.23</v>
+        <v>0.235</v>
       </c>
       <c r="M15">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="N15">
         <v>0.3</v>
       </c>
       <c r="O15">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="P15">
         <v>0.15</v>
@@ -1411,7 +1411,7 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>-0.01</v>
+        <v>-0.005000000000000001</v>
       </c>
       <c r="C16">
         <v>-0.02</v>
@@ -1420,25 +1420,25 @@
         <v>-0.14</v>
       </c>
       <c r="E16">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="F16">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="G16">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="H16">
         <v>0.02</v>
       </c>
       <c r="I16">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="J16">
         <v>-0.05</v>
       </c>
       <c r="K16">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="L16">
         <v>-0.16</v>
@@ -1447,13 +1447,13 @@
         <v>-0.16</v>
       </c>
       <c r="N16">
-        <v>-0.14</v>
+        <v>-0.135</v>
       </c>
       <c r="O16">
-        <v>-0.17</v>
+        <v>-0.175</v>
       </c>
       <c r="P16">
-        <v>-0.06</v>
+        <v>-0.055</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1467,10 +1467,10 @@
         <v>-0.03</v>
       </c>
       <c r="D17">
-        <v>-0.07000000000000001</v>
+        <v>-0.065</v>
       </c>
       <c r="E17">
-        <v>0.06</v>
+        <v>0.05500000000000001</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.06</v>
+        <v>0.05500000000000001</v>
       </c>
       <c r="J17">
         <v>-0.04</v>
       </c>
       <c r="K17">
-        <v>0.01</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="L17">
-        <v>-0.07000000000000001</v>
+        <v>-0.065</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>-0.07000000000000001</v>
+        <v>-0.065</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1514,13 +1514,13 @@
         <v>0.02</v>
       </c>
       <c r="C18">
-        <v>-0.01</v>
+        <v>-0.015</v>
       </c>
       <c r="D18">
         <v>-0.05</v>
       </c>
       <c r="E18">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1532,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="J18">
-        <v>-0.02</v>
+        <v>-0.025</v>
       </c>
       <c r="K18">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="L18">
         <v>-0.09</v>
       </c>
       <c r="M18">
-        <v>-0.15</v>
+        <v>-0.155</v>
       </c>
       <c r="N18">
         <v>0.02</v>
@@ -1567,10 +1567,10 @@
         <v>0.04</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.004999999999999999</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1582,25 +1582,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="J19">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="K19">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="L19">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="M19">
         <v>-0.08</v>
       </c>
       <c r="N19">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="O19">
-        <v>-0.01</v>
+        <v>-0.005000000000000001</v>
       </c>
       <c r="P19">
         <v>0.03</v>
@@ -1611,16 +1611,16 @@
         <v>33</v>
       </c>
       <c r="B20">
-        <v>-0.01</v>
+        <v>-0.005000000000000001</v>
       </c>
       <c r="C20">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="D20">
         <v>-0.01</v>
       </c>
       <c r="E20">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1632,22 +1632,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="J20">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="K20">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="L20">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1661,16 +1661,16 @@
         <v>34</v>
       </c>
       <c r="B21">
-        <v>-0.12</v>
+        <v>-0.125</v>
       </c>
       <c r="C21">
-        <v>-0.08</v>
+        <v>-0.07500000000000001</v>
       </c>
       <c r="D21">
         <v>-0.03</v>
       </c>
       <c r="E21">
-        <v>-0.12</v>
+        <v>-0.115</v>
       </c>
       <c r="F21">
         <v>-0.17</v>
@@ -1682,10 +1682,10 @@
         <v>-0.17</v>
       </c>
       <c r="I21">
-        <v>-0.08</v>
+        <v>-0.08499999999999999</v>
       </c>
       <c r="J21">
-        <v>-0.12</v>
+        <v>-0.115</v>
       </c>
       <c r="K21">
         <v>-0.06</v>
@@ -1711,7 +1711,7 @@
         <v>35</v>
       </c>
       <c r="B22">
-        <v>-0.02</v>
+        <v>-0.015</v>
       </c>
       <c r="C22">
         <v>0.03</v>
@@ -1720,7 +1720,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E22">
-        <v>-0.02</v>
+        <v>-0.025</v>
       </c>
       <c r="F22">
         <v>-0.09</v>
@@ -1735,22 +1735,22 @@
         <v>0.08</v>
       </c>
       <c r="J22">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="K22">
         <v>0.02</v>
       </c>
       <c r="L22">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="M22">
         <v>0.03</v>
       </c>
       <c r="N22">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="O22">
-        <v>0.01</v>
+        <v>0.005000000000000001</v>
       </c>
       <c r="P22">
         <v>0.03</v>
@@ -1764,7 +1764,7 @@
         <v>0.01</v>
       </c>
       <c r="C23">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="D23">
         <v>-0.06</v>
@@ -1785,22 +1785,22 @@
         <v>0.08</v>
       </c>
       <c r="J23">
-        <v>-0.07000000000000001</v>
+        <v>-0.075</v>
       </c>
       <c r="K23">
         <v>0.07000000000000001</v>
       </c>
       <c r="L23">
-        <v>-0.08</v>
+        <v>-0.07500000000000001</v>
       </c>
       <c r="M23">
-        <v>-0.11</v>
+        <v>-0.115</v>
       </c>
       <c r="N23">
-        <v>-0.06</v>
+        <v>-0.055</v>
       </c>
       <c r="O23">
-        <v>-0.08</v>
+        <v>-0.07500000000000001</v>
       </c>
       <c r="P23">
         <v>-0.02</v>
@@ -1814,10 +1814,10 @@
         <v>0.2</v>
       </c>
       <c r="C24">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="D24">
-        <v>0.05</v>
+        <v>0.04500000000000001</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="C25">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="D25">
         <v>0.09</v>
@@ -1891,7 +1891,7 @@
         <v>-0.01</v>
       </c>
       <c r="L25">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="M25">
         <v>-0.08</v>
@@ -1900,10 +1900,10 @@
         <v>0.05</v>
       </c>
       <c r="O25">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="P25">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1911,13 +1911,13 @@
         <v>39</v>
       </c>
       <c r="B26">
-        <v>0.08</v>
+        <v>0.08499999999999999</v>
       </c>
       <c r="C26">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="D26">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="E26">
         <v>0.08</v>
@@ -1941,16 +1941,16 @@
         <v>0.03</v>
       </c>
       <c r="L26">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="M26">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="N26">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="O26">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="P26">
         <v>0.06</v>
@@ -1961,13 +1961,13 @@
         <v>40</v>
       </c>
       <c r="B27">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="C27">
         <v>0.14</v>
       </c>
       <c r="D27">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1985,22 +1985,22 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="K27">
         <v>0.05</v>
       </c>
       <c r="L27">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="M27">
-        <v>0.23</v>
+        <v>0.235</v>
       </c>
       <c r="N27">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="O27">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="P27">
         <v>0.15</v>
@@ -2011,13 +2011,13 @@
         <v>41</v>
       </c>
       <c r="B28">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="C28">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="D28">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2073,25 +2073,25 @@
         <v>0.03</v>
       </c>
       <c r="F29">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="G29">
         <v>0.03</v>
       </c>
       <c r="H29">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="I29">
         <v>0.04</v>
       </c>
       <c r="J29">
-        <v>0.01</v>
+        <v>0.005000000000000001</v>
       </c>
       <c r="K29">
-        <v>0.08</v>
+        <v>0.08499999999999999</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="M29">
         <v>-0.07000000000000001</v>
@@ -2100,10 +2100,10 @@
         <v>-0.01</v>
       </c>
       <c r="O29">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="P29">
-        <v>0.01</v>
+        <v>0.009999999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2111,19 +2111,19 @@
         <v>43</v>
       </c>
       <c r="B30">
-        <v>0.33</v>
+        <v>0.325</v>
       </c>
       <c r="C30">
-        <v>0.09</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="D30">
         <v>0.01</v>
       </c>
       <c r="E30">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="F30">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="G30">
         <v>0.06</v>
@@ -2141,19 +2141,19 @@
         <v>0.18</v>
       </c>
       <c r="L30">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="M30">
-        <v>0.3</v>
+        <v>0.305</v>
       </c>
       <c r="N30">
-        <v>0.31</v>
+        <v>0.305</v>
       </c>
       <c r="O30">
-        <v>0.21</v>
+        <v>0.205</v>
       </c>
       <c r="P30">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2176,13 +2176,13 @@
         <v>0.06</v>
       </c>
       <c r="G31">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="H31">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="I31">
-        <v>0.05</v>
+        <v>0.04500000000000001</v>
       </c>
       <c r="J31">
         <v>-0.05</v>
@@ -2194,16 +2194,16 @@
         <v>-0.01</v>
       </c>
       <c r="M31">
-        <v>-0.1</v>
+        <v>-0.095</v>
       </c>
       <c r="N31">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="O31">
-        <v>-0.01</v>
+        <v>-0.015</v>
       </c>
       <c r="P31">
-        <v>-0.01</v>
+        <v>-0.009999999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2217,7 +2217,7 @@
         <v>0.05</v>
       </c>
       <c r="D32">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="E32">
         <v>0.08</v>
@@ -2229,7 +2229,7 @@
         <v>0.21</v>
       </c>
       <c r="H32">
-        <v>-0.01</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="I32">
         <v>0.08</v>
@@ -2241,13 +2241,13 @@
         <v>0.05</v>
       </c>
       <c r="L32">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="M32">
-        <v>0.01</v>
+        <v>0.005000000000000001</v>
       </c>
       <c r="N32">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="O32">
         <v>-0.11</v>
@@ -2261,43 +2261,43 @@
         <v>46</v>
       </c>
       <c r="B33">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="C33">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="D33">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="E33">
         <v>0.06</v>
       </c>
       <c r="F33">
-        <v>0.08</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.08</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="I33">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="J33">
         <v>0.11</v>
       </c>
       <c r="K33">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="L33">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -2311,10 +2311,10 @@
         <v>47</v>
       </c>
       <c r="B34">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="C34">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2323,25 +2323,25 @@
         <v>0.09</v>
       </c>
       <c r="F34">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G34">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="H34">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I34">
         <v>0.12</v>
       </c>
       <c r="J34">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="K34">
-        <v>0.08</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="L34">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="M34">
         <v>0.19</v>
@@ -2353,7 +2353,7 @@
         <v>0.24</v>
       </c>
       <c r="P34">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2361,46 +2361,46 @@
         <v>48</v>
       </c>
       <c r="B35">
-        <v>-0.08</v>
+        <v>-0.07500000000000001</v>
       </c>
       <c r="C35">
-        <v>-0.02</v>
+        <v>-0.015</v>
       </c>
       <c r="D35">
-        <v>-0.03</v>
+        <v>-0.035</v>
       </c>
       <c r="E35">
         <v>-0.01</v>
       </c>
       <c r="F35">
-        <v>-0.01</v>
+        <v>-0.009999999999999995</v>
       </c>
       <c r="G35">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H35">
         <v>-0.05</v>
       </c>
       <c r="I35">
-        <v>-0</v>
+        <v>-0.004999999999999999</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="K35">
-        <v>-0.01</v>
+        <v>-0.015</v>
       </c>
       <c r="L35">
-        <v>-0.1</v>
+        <v>-0.095</v>
       </c>
       <c r="M35">
-        <v>-0.07000000000000001</v>
+        <v>-0.065</v>
       </c>
       <c r="N35">
         <v>-0.09</v>
       </c>
       <c r="O35">
-        <v>-0.11</v>
+        <v>-0.115</v>
       </c>
       <c r="P35">
         <v>-0.05</v>
@@ -2411,7 +2411,7 @@
         <v>49</v>
       </c>
       <c r="B36">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="C36">
         <v>0.05</v>
@@ -2420,7 +2420,7 @@
         <v>-0.09</v>
       </c>
       <c r="E36">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="F36">
         <v>0.04</v>
@@ -2429,19 +2429,19 @@
         <v>0.11</v>
       </c>
       <c r="H36">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="I36">
-        <v>0.08</v>
+        <v>0.08499999999999999</v>
       </c>
       <c r="J36">
         <v>0.11</v>
       </c>
       <c r="K36">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="L36">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="M36">
         <v>0.13</v>
@@ -2450,10 +2450,10 @@
         <v>0.24</v>
       </c>
       <c r="O36">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="P36">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2461,7 +2461,7 @@
         <v>50</v>
       </c>
       <c r="B37">
-        <v>-0.04</v>
+        <v>-0.045</v>
       </c>
       <c r="C37">
         <v>0.07000000000000001</v>
@@ -2497,7 +2497,7 @@
         <v>0.22</v>
       </c>
       <c r="N37">
-        <v>0.08</v>
+        <v>0.08499999999999999</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2514,19 +2514,19 @@
         <v>-0.13</v>
       </c>
       <c r="C38">
-        <v>-0.15</v>
+        <v>-0.155</v>
       </c>
       <c r="D38">
         <v>-0.18</v>
       </c>
       <c r="E38">
-        <v>-0.15</v>
+        <v>-0.155</v>
       </c>
       <c r="F38">
-        <v>-0.15</v>
+        <v>-0.155</v>
       </c>
       <c r="G38">
-        <v>-0.15</v>
+        <v>-0.155</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>-0.15</v>
       </c>
       <c r="K38">
-        <v>-0.14</v>
+        <v>-0.135</v>
       </c>
       <c r="L38">
-        <v>-0.28</v>
+        <v>-0.285</v>
       </c>
       <c r="M38">
         <v>-0.28</v>
@@ -2553,7 +2553,7 @@
         <v>-0.35</v>
       </c>
       <c r="P38">
-        <v>-0.21</v>
+        <v>-0.205</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2567,25 +2567,25 @@
         <v>-0.01</v>
       </c>
       <c r="D39">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="E39">
-        <v>-0.08</v>
+        <v>-0.07500000000000001</v>
       </c>
       <c r="F39">
-        <v>-0.08</v>
+        <v>-0.07500000000000001</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>-0.08</v>
+        <v>-0.07500000000000001</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>-0.09</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2614,40 +2614,40 @@
         <v>-0.11</v>
       </c>
       <c r="C40">
-        <v>-0.12</v>
+        <v>-0.125</v>
       </c>
       <c r="D40">
         <v>-0.14</v>
       </c>
       <c r="E40">
-        <v>-0.12</v>
+        <v>-0.125</v>
       </c>
       <c r="F40">
-        <v>-0.12</v>
+        <v>-0.125</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>-0.12</v>
+        <v>-0.125</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>-0.09</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>-0.04</v>
+        <v>-0.03999999999999999</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>-0.04</v>
+        <v>-0.03999999999999999</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>54</v>
       </c>
       <c r="B41">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="C41">
         <v>0.02</v>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2682,28 +2682,28 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="J41">
         <v>0.01</v>
       </c>
       <c r="K41">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="L41">
         <v>0.04</v>
       </c>
       <c r="M41">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="N41">
-        <v>-0.03</v>
+        <v>-0.025</v>
       </c>
       <c r="O41">
         <v>0.09</v>
       </c>
       <c r="P41">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2711,13 +2711,13 @@
         <v>55</v>
       </c>
       <c r="B42">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="C42">
-        <v>0.01</v>
+        <v>0.005000000000000001</v>
       </c>
       <c r="D42">
-        <v>-0.03</v>
+        <v>-0.025</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>0.04</v>
       </c>
       <c r="P42">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2764,10 +2764,10 @@
         <v>0.37</v>
       </c>
       <c r="C43">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="D43">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2785,22 +2785,22 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
       <c r="K43">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="L43">
         <v>0.37</v>
       </c>
       <c r="M43">
-        <v>0.4</v>
+        <v>0.405</v>
       </c>
       <c r="N43">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="O43">
-        <v>0.57</v>
+        <v>0.575</v>
       </c>
       <c r="P43">
         <v>0.31</v>
@@ -2811,7 +2811,7 @@
         <v>57</v>
       </c>
       <c r="B44">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="C44">
         <v>0.07000000000000001</v>
@@ -2820,40 +2820,40 @@
         <v>0.08</v>
       </c>
       <c r="E44">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="F44">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="I44">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="J44">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="K44">
         <v>-0.03</v>
       </c>
       <c r="L44">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="M44">
         <v>0.26</v>
       </c>
       <c r="N44">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="O44">
         <v>0.16</v>
       </c>
       <c r="P44">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2861,22 +2861,22 @@
         <v>58</v>
       </c>
       <c r="B45">
-        <v>-0.01</v>
+        <v>-0.015</v>
       </c>
       <c r="C45">
         <v>0.03</v>
       </c>
       <c r="D45">
-        <v>-0.01</v>
+        <v>-0.015</v>
       </c>
       <c r="E45">
         <v>0.06</v>
       </c>
       <c r="F45">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="G45">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="H45">
         <v>0.11</v>
@@ -2885,13 +2885,13 @@
         <v>0.01</v>
       </c>
       <c r="J45">
-        <v>-0.02</v>
+        <v>-0.015</v>
       </c>
       <c r="K45">
         <v>0.03</v>
       </c>
       <c r="L45">
-        <v>-0.02</v>
+        <v>-0.015</v>
       </c>
       <c r="M45">
         <v>-0.09</v>
@@ -2900,10 +2900,10 @@
         <v>0.02</v>
       </c>
       <c r="O45">
-        <v>-0.04</v>
+        <v>-0.035</v>
       </c>
       <c r="P45">
-        <v>0.01</v>
+        <v>0.005000000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2932,13 +2932,13 @@
         <v>0.14</v>
       </c>
       <c r="I46">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="J46">
         <v>0.1</v>
       </c>
       <c r="K46">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="L46">
         <v>0.13</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="O46">
         <v>0.17</v>
@@ -2961,10 +2961,10 @@
         <v>60</v>
       </c>
       <c r="B47">
-        <v>-0.03</v>
+        <v>-0.025</v>
       </c>
       <c r="C47">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="D47">
         <v>-0.02</v>
@@ -2976,10 +2976,10 @@
         <v>0.1</v>
       </c>
       <c r="G47">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="H47">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="I47">
         <v>0.1</v>
@@ -3014,43 +3014,43 @@
         <v>0.11</v>
       </c>
       <c r="C48">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="D48">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="E48">
-        <v>0.09</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="F48">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="I48">
         <v>0.06</v>
       </c>
       <c r="J48">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="K48">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="L48">
         <v>0.09</v>
       </c>
       <c r="M48">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="N48">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="O48">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="P48">
         <v>0.06</v>
@@ -3064,10 +3064,10 @@
         <v>0.23</v>
       </c>
       <c r="C49">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="D49">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="E49">
         <v>0.1</v>
@@ -3076,7 +3076,7 @@
         <v>0.11</v>
       </c>
       <c r="G49">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="H49">
         <v>0.15</v>
@@ -3088,10 +3088,10 @@
         <v>0.1</v>
       </c>
       <c r="K49">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="L49">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="M49">
         <v>0.2</v>
@@ -3100,7 +3100,7 @@
         <v>0.22</v>
       </c>
       <c r="O49">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="P49">
         <v>0.14</v>
@@ -3117,10 +3117,10 @@
         <v>0.09</v>
       </c>
       <c r="D50">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="E50">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="F50">
         <v>0.11</v>
@@ -3132,28 +3132,28 @@
         <v>0.12</v>
       </c>
       <c r="I50">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="J50">
         <v>0.1</v>
       </c>
       <c r="K50">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L50">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
       <c r="P50">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3167,10 +3167,10 @@
         <v>0.04</v>
       </c>
       <c r="D51">
-        <v>-0.05</v>
+        <v>-0.04500000000000001</v>
       </c>
       <c r="E51">
-        <v>0.08</v>
+        <v>0.08499999999999999</v>
       </c>
       <c r="F51">
         <v>0.12</v>
@@ -3182,25 +3182,25 @@
         <v>0.12</v>
       </c>
       <c r="I51">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="J51">
         <v>-0.03</v>
       </c>
       <c r="K51">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="L51">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="M51">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="N51">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="O51">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="P51">
         <v>0.07000000000000001</v>
@@ -3223,37 +3223,37 @@
         <v>0.02</v>
       </c>
       <c r="F52">
-        <v>0.02</v>
+        <v>0.02499999999999999</v>
       </c>
       <c r="G52">
         <v>-0.03</v>
       </c>
       <c r="H52">
-        <v>0.05</v>
+        <v>0.05499999999999999</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="K52">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="L52">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="M52">
         <v>0.02</v>
       </c>
       <c r="N52">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="O52">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="P52">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3261,34 +3261,34 @@
         <v>66</v>
       </c>
       <c r="B53">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="C53">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="D53">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="E53">
         <v>0.13</v>
       </c>
       <c r="F53">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="G53">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="H53">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="I53">
         <v>0.14</v>
       </c>
       <c r="J53">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="K53">
-        <v>-0</v>
+        <v>-0.004999999999999999</v>
       </c>
       <c r="L53">
         <v>0.11</v>
@@ -3297,10 +3297,10 @@
         <v>0.25</v>
       </c>
       <c r="N53">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="O53">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="P53">
         <v>0.1</v>
@@ -3317,7 +3317,7 @@
         <v>0.1</v>
       </c>
       <c r="D54">
-        <v>-0.01</v>
+        <v>-0.005000000000000001</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3335,25 +3335,25 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>-0.03</v>
+        <v>-0.025</v>
       </c>
       <c r="K54">
         <v>0.45</v>
       </c>
       <c r="L54">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="M54">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="N54">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="O54">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="P54">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3414,10 +3414,10 @@
         <v>0.03</v>
       </c>
       <c r="C56">
-        <v>0.06</v>
+        <v>0.05500000000000001</v>
       </c>
       <c r="D56">
-        <v>0.06</v>
+        <v>0.05500000000000001</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>0.05</v>
+        <v>0.04500000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3461,13 +3461,13 @@
         <v>70</v>
       </c>
       <c r="B57">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
       <c r="C57">
-        <v>0.07000000000000001</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="D57">
-        <v>0.07000000000000001</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3491,19 +3491,19 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3511,10 +3511,10 @@
         <v>71</v>
       </c>
       <c r="B58">
-        <v>-0.11</v>
+        <v>-0.105</v>
       </c>
       <c r="C58">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="D58">
         <v>0.02</v>
@@ -3535,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="K58">
-        <v>-0.03</v>
+        <v>-0.025</v>
       </c>
       <c r="L58">
-        <v>0.06</v>
+        <v>0.05500000000000001</v>
       </c>
       <c r="M58">
         <v>0.06</v>
@@ -3550,7 +3550,7 @@
         <v>-0.01</v>
       </c>
       <c r="O58">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="P58">
         <v>0.03</v>
@@ -3567,7 +3567,7 @@
         <v>-0.04</v>
       </c>
       <c r="D59">
-        <v>-0.03</v>
+        <v>-0.025</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3585,19 +3585,19 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>-0.04</v>
+        <v>-0.045</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>-0.04</v>
+        <v>-0.045</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>-0.04</v>
+        <v>-0.045</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>73</v>
       </c>
       <c r="B60">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="C60">
         <v>0.07000000000000001</v>
@@ -3641,19 +3641,19 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="O60">
         <v>0.3</v>
       </c>
       <c r="P60">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3670,7 +3670,7 @@
         <v>0.19</v>
       </c>
       <c r="E61">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="F61">
         <v>0.16</v>
@@ -3682,19 +3682,19 @@
         <v>0.22</v>
       </c>
       <c r="I61">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="J61">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="K61">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L61">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="M61">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="N61">
         <v>0.29</v>
@@ -3714,25 +3714,25 @@
         <v>0.22</v>
       </c>
       <c r="C62">
-        <v>0.05</v>
+        <v>0.04500000000000001</v>
       </c>
       <c r="D62">
         <v>-0.01</v>
       </c>
       <c r="E62">
-        <v>0.08</v>
+        <v>0.08499999999999999</v>
       </c>
       <c r="F62">
         <v>0.06</v>
       </c>
       <c r="G62">
-        <v>-0.06</v>
+        <v>-0.05500000000000001</v>
       </c>
       <c r="H62">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="I62">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="J62">
         <v>-0.04</v>
@@ -3744,16 +3744,16 @@
         <v>0.17</v>
       </c>
       <c r="M62">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="N62">
         <v>0.28</v>
       </c>
       <c r="O62">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="P62">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3764,16 +3764,16 @@
         <v>0.26</v>
       </c>
       <c r="C63">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="D63">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="E63">
         <v>0.13</v>
       </c>
       <c r="F63">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="G63">
         <v>0.22</v>
@@ -3785,19 +3785,19 @@
         <v>0.21</v>
       </c>
       <c r="J63">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="M63">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="N63">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="O63">
         <v>0.12</v>
@@ -3814,13 +3814,13 @@
         <v>0.28</v>
       </c>
       <c r="C64">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="D64">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="E64">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="F64">
         <v>0.12</v>
@@ -3838,22 +3838,22 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="L64">
-        <v>0.29</v>
+        <v>0.285</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>0.29</v>
+        <v>0.285</v>
       </c>
       <c r="O64">
         <v>0</v>
       </c>
       <c r="P64">
-        <v>0.21</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3861,46 +3861,46 @@
         <v>78</v>
       </c>
       <c r="B65">
-        <v>0.4</v>
+        <v>0.395</v>
       </c>
       <c r="C65">
-        <v>0.21</v>
+        <v>0.205</v>
       </c>
       <c r="D65">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="E65">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="F65">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="G65">
         <v>-0.01</v>
       </c>
       <c r="H65">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="I65">
         <v>0.22</v>
       </c>
       <c r="J65">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="K65">
         <v>0.19</v>
       </c>
       <c r="L65">
-        <v>0.39</v>
+        <v>0.385</v>
       </c>
       <c r="M65">
         <v>0.3</v>
       </c>
       <c r="N65">
-        <v>0.38</v>
+        <v>0.375</v>
       </c>
       <c r="O65">
-        <v>0.45</v>
+        <v>0.455</v>
       </c>
       <c r="P65">
         <v>0.28</v>
@@ -3911,13 +3911,13 @@
         <v>79</v>
       </c>
       <c r="B66">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="C66">
         <v>0.14</v>
       </c>
       <c r="D66">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="K66">
         <v>0.08</v>
@@ -3947,13 +3947,13 @@
         <v>0.2</v>
       </c>
       <c r="N66">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="O66">
         <v>0.3</v>
       </c>
       <c r="P66">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3964,10 +3964,10 @@
         <v>0.19</v>
       </c>
       <c r="C67">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="D67">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="E67">
         <v>0.11</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.01</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="K67">
         <v>-0.08</v>
       </c>
       <c r="L67">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="M67">
         <v>0.21</v>
@@ -4000,7 +4000,7 @@
         <v>0.17</v>
       </c>
       <c r="O67">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="P67">
         <v>0.12</v>
@@ -4014,31 +4014,31 @@
         <v>0.08</v>
       </c>
       <c r="C68">
-        <v>0.08</v>
+        <v>0.08499999999999999</v>
       </c>
       <c r="D68">
         <v>0.08</v>
       </c>
       <c r="E68">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F68">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="G68">
-        <v>-0.04</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="H68">
         <v>0.16</v>
       </c>
       <c r="I68">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="J68">
         <v>0.12</v>
       </c>
       <c r="K68">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="L68">
         <v>0.13</v>
@@ -4061,7 +4061,7 @@
         <v>82</v>
       </c>
       <c r="B69">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="C69">
         <v>0.02</v>
@@ -4070,22 +4070,22 @@
         <v>-0.03</v>
       </c>
       <c r="E69">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="F69">
         <v>0.09</v>
       </c>
       <c r="G69">
-        <v>-0.01</v>
+        <v>-0.015</v>
       </c>
       <c r="H69">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="I69">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="J69">
-        <v>-0.02</v>
+        <v>-0.015</v>
       </c>
       <c r="K69">
         <v>-0.01</v>
@@ -4094,16 +4094,16 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>-0.15</v>
+        <v>-0.145</v>
       </c>
       <c r="N69">
         <v>0.15</v>
       </c>
       <c r="O69">
-        <v>-0.15</v>
+        <v>-0.145</v>
       </c>
       <c r="P69">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4111,7 +4111,7 @@
         <v>83</v>
       </c>
       <c r="B70">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="C70">
         <v>0.11</v>
@@ -4129,7 +4129,7 @@
         <v>0.09</v>
       </c>
       <c r="H70">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="I70">
         <v>0.02</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4164,16 +4164,16 @@
         <v>0.04</v>
       </c>
       <c r="C71">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D71">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="E71">
         <v>0.09</v>
       </c>
       <c r="F71">
-        <v>0.09</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="G71">
         <v>-0.02</v>
@@ -4182,16 +4182,16 @@
         <v>0.15</v>
       </c>
       <c r="I71">
-        <v>0.09</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="J71">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="K71">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -4214,10 +4214,10 @@
         <v>0.06</v>
       </c>
       <c r="C72">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="D72">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="E72">
         <v>0.14</v>
@@ -4229,25 +4229,25 @@
         <v>0.02</v>
       </c>
       <c r="H72">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="I72">
         <v>0.11</v>
       </c>
       <c r="J72">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="K72">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="L72">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -4261,13 +4261,13 @@
         <v>86</v>
       </c>
       <c r="B73">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="C73">
         <v>0.01</v>
       </c>
       <c r="D73">
-        <v>-0.06</v>
+        <v>-0.055</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4291,19 +4291,19 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>0.38</v>
+        <v>0.375</v>
       </c>
       <c r="M73">
-        <v>0.34</v>
+        <v>0.345</v>
       </c>
       <c r="N73">
-        <v>0.32</v>
+        <v>0.315</v>
       </c>
       <c r="O73">
-        <v>0.45</v>
+        <v>0.445</v>
       </c>
       <c r="P73">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4338,22 +4338,22 @@
         <v>0.14</v>
       </c>
       <c r="K74">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="L74">
         <v>0.08</v>
       </c>
       <c r="M74">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="N74">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="O74">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="P74">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4367,7 +4367,7 @@
         <v>0.19</v>
       </c>
       <c r="D75">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4391,19 +4391,19 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0.33</v>
+        <v>0.325</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>0.33</v>
+        <v>0.325</v>
       </c>
       <c r="O75">
         <v>0</v>
       </c>
       <c r="P75">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4411,7 +4411,7 @@
         <v>89</v>
       </c>
       <c r="B76">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="C76">
         <v>0.08</v>
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="M76">
         <v>0.14</v>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="P76">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4461,22 +4461,22 @@
         <v>90</v>
       </c>
       <c r="B77">
-        <v>0.01</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="C77">
         <v>0.23</v>
       </c>
       <c r="D77">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="E77">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="F77">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="G77">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="K77">
-        <v>0.28</v>
+        <v>0.275</v>
       </c>
       <c r="L77">
         <v>0.35</v>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="P77">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4514,10 +4514,10 @@
         <v>0.36</v>
       </c>
       <c r="C78">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="D78">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>0.01</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="M78">
         <v>0.01</v>
@@ -4550,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="O78">
-        <v>-0.01</v>
+        <v>-0.005000000000000001</v>
       </c>
       <c r="P78">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4561,10 +4561,10 @@
         <v>92</v>
       </c>
       <c r="B79">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="C79">
-        <v>0.07000000000000001</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="D79">
         <v>0.06</v>
@@ -4573,34 +4573,34 @@
         <v>0.09</v>
       </c>
       <c r="F79">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G79">
         <v>0.13</v>
       </c>
       <c r="H79">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="I79">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="J79">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="K79">
         <v>0.13</v>
       </c>
       <c r="L79">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="M79">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
       <c r="N79">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="O79">
-        <v>0.01</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="P79">
         <v>0.06</v>
@@ -4611,46 +4611,46 @@
         <v>93</v>
       </c>
       <c r="B80">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="C80">
         <v>0.06</v>
       </c>
       <c r="D80">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="E80">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F80">
-        <v>0.05</v>
+        <v>0.04500000000000001</v>
       </c>
       <c r="G80">
         <v>-0.04</v>
       </c>
       <c r="H80">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="I80">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="J80">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="K80">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="L80">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="M80">
-        <v>0.33</v>
+        <v>0.325</v>
       </c>
       <c r="N80">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="O80">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="P80">
         <v>0.13</v>

--- a/pnas_2212794120_S89_MEAN.xlsx
+++ b/pnas_2212794120_S89_MEAN.xlsx
@@ -741,13 +741,13 @@
         <v>-0.11</v>
       </c>
       <c r="L2">
-        <v>-0.07500000000000001</v>
+        <v>-0.075</v>
       </c>
       <c r="M2">
         <v>-0.055</v>
       </c>
       <c r="N2">
-        <v>-0.09000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="O2">
         <v>-0.06</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>-0.05500000000000001</v>
+        <v>-0.055</v>
       </c>
       <c r="L4">
         <v>0.03</v>
@@ -873,7 +873,7 @@
         <v>-0.08</v>
       </c>
       <c r="F5">
-        <v>-0.06999999999999999</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G5">
         <v>-0.095</v>
@@ -973,7 +973,7 @@
         <v>-0.025</v>
       </c>
       <c r="F7">
-        <v>-0.009999999999999998</v>
+        <v>-0.01</v>
       </c>
       <c r="G7">
         <v>0.07000000000000001</v>
@@ -1020,7 +1020,7 @@
         <v>-0.26</v>
       </c>
       <c r="E8">
-        <v>-0.08499999999999999</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="F8">
         <v>-0.11</v>
@@ -1032,7 +1032,7 @@
         <v>-0.11</v>
       </c>
       <c r="I8">
-        <v>-0.05499999999999999</v>
+        <v>-0.055</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>-0.23</v>
       </c>
       <c r="H10">
-        <v>-0.07500000000000001</v>
+        <v>-0.075</v>
       </c>
       <c r="I10">
         <v>-0.255</v>
@@ -1188,7 +1188,7 @@
         <v>0.095</v>
       </c>
       <c r="K11">
-        <v>0.08499999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L11">
         <v>0.21</v>
@@ -1211,7 +1211,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>0.08499999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C12">
         <v>0.13</v>
@@ -1285,7 +1285,7 @@
         <v>0.125</v>
       </c>
       <c r="J13">
-        <v>0.09000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="K13">
         <v>0.125</v>
@@ -1332,13 +1332,13 @@
         <v>0.035</v>
       </c>
       <c r="I14">
-        <v>0.009999999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="J14">
         <v>0.01</v>
       </c>
       <c r="K14">
-        <v>0.005000000000000001</v>
+        <v>0.005</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0.015</v>
       </c>
       <c r="O14">
-        <v>-0.004999999999999998</v>
+        <v>-0.005</v>
       </c>
       <c r="P14">
-        <v>0.009999999999999998</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1373,7 +1373,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="F15">
-        <v>0.04500000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="G15">
         <v>0.08</v>
@@ -1411,7 +1411,7 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>-0.005000000000000001</v>
+        <v>-0.005</v>
       </c>
       <c r="C16">
         <v>-0.02</v>
@@ -1470,7 +1470,7 @@
         <v>-0.065</v>
       </c>
       <c r="E17">
-        <v>0.05500000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.05500000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="J17">
         <v>-0.04</v>
       </c>
       <c r="K17">
-        <v>0.009999999999999995</v>
+        <v>0.01</v>
       </c>
       <c r="L17">
         <v>-0.065</v>
@@ -1567,10 +1567,10 @@
         <v>0.04</v>
       </c>
       <c r="D19">
-        <v>0.004999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="E19">
-        <v>0.004999999999999998</v>
+        <v>0.005</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.004999999999999998</v>
+        <v>0.005</v>
       </c>
       <c r="J19">
         <v>0.015</v>
@@ -1600,7 +1600,7 @@
         <v>0.075</v>
       </c>
       <c r="O19">
-        <v>-0.005000000000000001</v>
+        <v>-0.005</v>
       </c>
       <c r="P19">
         <v>0.03</v>
@@ -1611,7 +1611,7 @@
         <v>33</v>
       </c>
       <c r="B20">
-        <v>-0.005000000000000001</v>
+        <v>-0.005</v>
       </c>
       <c r="C20">
         <v>0.045</v>
@@ -1664,7 +1664,7 @@
         <v>-0.125</v>
       </c>
       <c r="C21">
-        <v>-0.07500000000000001</v>
+        <v>-0.075</v>
       </c>
       <c r="D21">
         <v>-0.03</v>
@@ -1682,7 +1682,7 @@
         <v>-0.17</v>
       </c>
       <c r="I21">
-        <v>-0.08499999999999999</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="J21">
         <v>-0.115</v>
@@ -1750,7 +1750,7 @@
         <v>0.095</v>
       </c>
       <c r="O22">
-        <v>0.005000000000000001</v>
+        <v>0.005</v>
       </c>
       <c r="P22">
         <v>0.03</v>
@@ -1791,7 +1791,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="L23">
-        <v>-0.07500000000000001</v>
+        <v>-0.075</v>
       </c>
       <c r="M23">
         <v>-0.115</v>
@@ -1800,7 +1800,7 @@
         <v>-0.055</v>
       </c>
       <c r="O23">
-        <v>-0.07500000000000001</v>
+        <v>-0.075</v>
       </c>
       <c r="P23">
         <v>-0.02</v>
@@ -1817,7 +1817,7 @@
         <v>0.045</v>
       </c>
       <c r="D24">
-        <v>0.04500000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="C25">
         <v>0.035</v>
@@ -1911,7 +1911,7 @@
         <v>39</v>
       </c>
       <c r="B26">
-        <v>0.08499999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C26">
         <v>0.065</v>
@@ -2085,13 +2085,13 @@
         <v>0.04</v>
       </c>
       <c r="J29">
-        <v>0.005000000000000001</v>
+        <v>0.005</v>
       </c>
       <c r="K29">
-        <v>0.08499999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L29">
-        <v>0.004999999999999998</v>
+        <v>0.005</v>
       </c>
       <c r="M29">
         <v>-0.07000000000000001</v>
@@ -2103,7 +2103,7 @@
         <v>0.045</v>
       </c>
       <c r="P29">
-        <v>0.009999999999999998</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2114,7 +2114,7 @@
         <v>0.325</v>
       </c>
       <c r="C30">
-        <v>0.09000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="D30">
         <v>0.01</v>
@@ -2182,7 +2182,7 @@
         <v>0.065</v>
       </c>
       <c r="I31">
-        <v>0.04500000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="J31">
         <v>-0.05</v>
@@ -2203,7 +2203,7 @@
         <v>-0.015</v>
       </c>
       <c r="P31">
-        <v>-0.009999999999999998</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2229,7 +2229,7 @@
         <v>0.21</v>
       </c>
       <c r="H32">
-        <v>-0.01000000000000001</v>
+        <v>-0.01</v>
       </c>
       <c r="I32">
         <v>0.08</v>
@@ -2244,7 +2244,7 @@
         <v>0.015</v>
       </c>
       <c r="M32">
-        <v>0.005000000000000001</v>
+        <v>0.005</v>
       </c>
       <c r="N32">
         <v>0.035</v>
@@ -2273,13 +2273,13 @@
         <v>0.06</v>
       </c>
       <c r="F33">
-        <v>0.07500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.07500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I33">
         <v>0.035</v>
@@ -2338,7 +2338,7 @@
         <v>0.095</v>
       </c>
       <c r="K34">
-        <v>0.07500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="L34">
         <v>0.195</v>
@@ -2361,7 +2361,7 @@
         <v>48</v>
       </c>
       <c r="B35">
-        <v>-0.07500000000000001</v>
+        <v>-0.075</v>
       </c>
       <c r="C35">
         <v>-0.015</v>
@@ -2373,7 +2373,7 @@
         <v>-0.01</v>
       </c>
       <c r="F35">
-        <v>-0.009999999999999995</v>
+        <v>-0.01</v>
       </c>
       <c r="G35">
         <v>0.075</v>
@@ -2382,10 +2382,10 @@
         <v>-0.05</v>
       </c>
       <c r="I35">
-        <v>-0.004999999999999999</v>
+        <v>-0.005</v>
       </c>
       <c r="J35">
-        <v>0.004999999999999998</v>
+        <v>0.005</v>
       </c>
       <c r="K35">
         <v>-0.015</v>
@@ -2432,7 +2432,7 @@
         <v>0.025</v>
       </c>
       <c r="I36">
-        <v>0.08499999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J36">
         <v>0.11</v>
@@ -2497,7 +2497,7 @@
         <v>0.22</v>
       </c>
       <c r="N37">
-        <v>0.08499999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>0.095</v>
       </c>
       <c r="E39">
-        <v>-0.07500000000000001</v>
+        <v>-0.075</v>
       </c>
       <c r="F39">
-        <v>-0.07500000000000001</v>
+        <v>-0.075</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>-0.07500000000000001</v>
+        <v>-0.075</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2641,13 +2641,13 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>-0.03999999999999999</v>
+        <v>-0.04</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>-0.03999999999999999</v>
+        <v>-0.04</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0.025</v>
       </c>
       <c r="C42">
-        <v>0.005000000000000001</v>
+        <v>0.005</v>
       </c>
       <c r="D42">
         <v>-0.025</v>
@@ -2903,7 +2903,7 @@
         <v>-0.035</v>
       </c>
       <c r="P45">
-        <v>0.005000000000000001</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3020,7 +3020,7 @@
         <v>0.045</v>
       </c>
       <c r="E48">
-        <v>0.09000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F48">
         <v>0.125</v>
@@ -3167,10 +3167,10 @@
         <v>0.04</v>
       </c>
       <c r="D51">
-        <v>-0.04500000000000001</v>
+        <v>-0.045</v>
       </c>
       <c r="E51">
-        <v>0.08499999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F51">
         <v>0.12</v>
@@ -3223,13 +3223,13 @@
         <v>0.02</v>
       </c>
       <c r="F52">
-        <v>0.02499999999999999</v>
+        <v>0.025</v>
       </c>
       <c r="G52">
         <v>-0.03</v>
       </c>
       <c r="H52">
-        <v>0.05499999999999999</v>
+        <v>0.055</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>0.025</v>
       </c>
       <c r="K53">
-        <v>-0.004999999999999999</v>
+        <v>-0.005</v>
       </c>
       <c r="L53">
         <v>0.11</v>
@@ -3317,7 +3317,7 @@
         <v>0.1</v>
       </c>
       <c r="D54">
-        <v>-0.005000000000000001</v>
+        <v>-0.005</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3414,10 +3414,10 @@
         <v>0.03</v>
       </c>
       <c r="C56">
-        <v>0.05500000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="D56">
-        <v>0.05500000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>0.04500000000000001</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3464,10 +3464,10 @@
         <v>0.265</v>
       </c>
       <c r="C57">
-        <v>0.06999999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D57">
-        <v>0.06999999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>-0.025</v>
       </c>
       <c r="L58">
-        <v>0.05500000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="M58">
         <v>0.06</v>
@@ -3714,19 +3714,19 @@
         <v>0.22</v>
       </c>
       <c r="C62">
-        <v>0.04500000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="D62">
         <v>-0.01</v>
       </c>
       <c r="E62">
-        <v>0.08499999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F62">
         <v>0.06</v>
       </c>
       <c r="G62">
-        <v>-0.05500000000000001</v>
+        <v>-0.055</v>
       </c>
       <c r="H62">
         <v>0.095</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.009999999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="K67">
         <v>-0.08</v>
@@ -4014,7 +4014,7 @@
         <v>0.08</v>
       </c>
       <c r="C68">
-        <v>0.08499999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D68">
         <v>0.08</v>
@@ -4026,7 +4026,7 @@
         <v>0.095</v>
       </c>
       <c r="G68">
-        <v>-0.04000000000000001</v>
+        <v>-0.04</v>
       </c>
       <c r="H68">
         <v>0.16</v>
@@ -4173,7 +4173,7 @@
         <v>0.09</v>
       </c>
       <c r="F71">
-        <v>0.09000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G71">
         <v>-0.02</v>
@@ -4182,7 +4182,7 @@
         <v>0.15</v>
       </c>
       <c r="I71">
-        <v>0.09000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="J71">
         <v>0.125</v>
@@ -4191,7 +4191,7 @@
         <v>0.105</v>
       </c>
       <c r="L71">
-        <v>0.004999999999999998</v>
+        <v>0.005</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>90</v>
       </c>
       <c r="B77">
-        <v>0.009999999999999995</v>
+        <v>0.01</v>
       </c>
       <c r="C77">
         <v>0.23</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>0.005000000000000004</v>
+        <v>0.005</v>
       </c>
       <c r="M78">
         <v>0.01</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="O78">
-        <v>-0.005000000000000001</v>
+        <v>-0.005</v>
       </c>
       <c r="P78">
         <v>0.055</v>
@@ -4564,7 +4564,7 @@
         <v>0.095</v>
       </c>
       <c r="C79">
-        <v>0.06999999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D79">
         <v>0.06</v>
@@ -4600,7 +4600,7 @@
         <v>0.045</v>
       </c>
       <c r="O79">
-        <v>0.009999999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="P79">
         <v>0.06</v>
@@ -4623,7 +4623,7 @@
         <v>0.075</v>
       </c>
       <c r="F80">
-        <v>0.04500000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="G80">
         <v>-0.04</v>
